--- a/Excel/MapNavMeshConfig.xlsx
+++ b/Excel/MapNavMeshConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076C7144-D844-4871-A54A-0086314DD161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="4380" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="6300" yWindow="2925" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CN" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -68,13 +69,17 @@
   </si>
   <si>
     <t>NavMesh资源路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../Config/RecastNavData/solo_navmesh.bin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,11 +430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -437,7 +442,7 @@
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="10.125" style="3" customWidth="1"/>
     <col min="4" max="5" width="14.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.875" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -510,8 +515,8 @@
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3">
-        <v>10001</v>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapNavMeshConfig.xlsx
+++ b/Excel/MapNavMeshConfig.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076C7144-D844-4871-A54A-0086314DD161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2925" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2925" windowWidth="21600" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="CN" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -72,14 +71,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UnityScene资源路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitySceneAssetPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>../Config/RecastNavData/solo_navmesh.bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,11 +449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -442,18 +461,20 @@
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="10.125" style="3" customWidth="1"/>
     <col min="4" max="5" width="14.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="44.875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="21.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -461,8 +482,9 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -474,10 +496,13 @@
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="4" t="s">
         <v>1</v>
@@ -489,10 +514,13 @@
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -501,11 +529,14 @@
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -515,8 +546,28 @@
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
+      <c r="F6" s="3">
+        <v>10001</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10002</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
